--- a/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/发改委预算表格——创新-详表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/发改委预算表格——创新-详表.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Woody\Git Projects\workzone\训练中心创客交叉融合空间建设\admin\建设经费\发改委0.8B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Woody/Documents/Git Workspace/workzone/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25635"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,20 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>惯性动作捕捉系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MVN</t>
-    </r>
-  </si>
-  <si>
     <t>为学生设计动作类交互、人的动作仿真等程序，提供动作采集平台。同时可以用于工程类实践教学内容设计与制作，及现场互动教学。</t>
   </si>
   <si>
@@ -90,21 +79,6 @@
   <si>
     <t>交互展示系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>84</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸液晶屏，多点触控。</t>
-    </r>
   </si>
   <si>
     <t>全景成像系统</t>
@@ -557,9 +531,6 @@
     <t>光伏发电占地面积广，太阳能电池板高达几千甚至上万块，利用无人机搭载热成像仪，能高效迅速检查太阳能电池板是否存在过热问题。有效避免太阳能电池板过热导致的损坏，大力支持可再生能源迅猛发展。用于进行未来新能源开采、能源管理、相关设备设施制造等方面的教学与研究。</t>
   </si>
   <si>
-    <t>手持式红外成像仪Flir T630</t>
-  </si>
-  <si>
     <t>用于红外成像检测与查看，可与用于要干开发项目，也可用于热加工实验中学生进行查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,10 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脑电分析仪 Cognionics 72CH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习行为分析实验室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,24 +653,159 @@
   <si>
     <t>拟使用地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惯性动作捕捉系统</t>
+  </si>
+  <si>
+    <t>23骨架，3个传感器</t>
+  </si>
+  <si>
+    <t>荷兰Xens</t>
+  </si>
+  <si>
+    <t>MVN Link&amp;MVN  Studio Pro</t>
+  </si>
+  <si>
+    <t>i7, 64GB, 3T</t>
+  </si>
+  <si>
+    <t>华宸</t>
+  </si>
+  <si>
+    <t>144寸LED屏，多点触控</t>
+  </si>
+  <si>
+    <t>L144P1.9S</t>
+  </si>
+  <si>
+    <t>144寸，1.9mm间距</t>
+  </si>
+  <si>
+    <t>利亚德</t>
+  </si>
+  <si>
+    <t>Ladybug5</t>
+  </si>
+  <si>
+    <t>6个500万像素摄像头</t>
+  </si>
+  <si>
+    <t>手持式红外成像仪</t>
+  </si>
+  <si>
+    <t>Flir T630</t>
+  </si>
+  <si>
+    <t>脑电分析仪</t>
+  </si>
+  <si>
+    <t>Cognionics 72CH</t>
+  </si>
+  <si>
+    <t>500万像素，0.04摄氏度分辨率，5个传感器</t>
+  </si>
+  <si>
+    <t>FLIR</t>
+  </si>
+  <si>
+    <t>72通道，即插即用</t>
+  </si>
+  <si>
+    <t>Cognionics</t>
+  </si>
+  <si>
+    <t>UNITY</t>
+  </si>
+  <si>
+    <t>100组阴影渲染</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>多平台通用发布</t>
+  </si>
+  <si>
+    <t>MetaIO</t>
+  </si>
+  <si>
+    <t>加入了重力感应，配备SLAM，多平台</t>
+  </si>
+  <si>
+    <t>最大60fps帧速率，3m感应距离</t>
+  </si>
+  <si>
+    <t>Trackpack4</t>
+  </si>
+  <si>
+    <t>Trackpack</t>
+  </si>
+  <si>
+    <t>B643-2</t>
+  </si>
+  <si>
+    <t>李兆基科技大楼一层及六层</t>
+  </si>
+  <si>
+    <t>李兆基科技大楼各实验室</t>
+  </si>
+  <si>
+    <t>B569</t>
+  </si>
+  <si>
+    <t>5DT Data Glove 14 Ultra</t>
+  </si>
+  <si>
+    <t>5DT</t>
+  </si>
+  <si>
+    <t>14个传感器，0.11度分辨率，75Hz刷新率</t>
+  </si>
+  <si>
+    <t>Point Grey</t>
+  </si>
+  <si>
+    <t>Rift II</t>
+  </si>
+  <si>
+    <t>1920x1080分辨率，75Hz刷新率</t>
+  </si>
+  <si>
+    <t>Oculus</t>
+  </si>
+  <si>
+    <t>24寸显示，1920x1080分辨率，15观看者</t>
+  </si>
+  <si>
+    <t>zSpace</t>
+  </si>
+  <si>
+    <t>7寸交互终端，指纹识别、视频识别、室内数据统计、教室预约与动态权限管理</t>
+  </si>
+  <si>
+    <t>西安智园</t>
+  </si>
+  <si>
+    <t>Roomis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -740,38 +842,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -779,14 +881,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +906,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -815,18 +926,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,7 +1022,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0FFC8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1174,90 +1279,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="5.875" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.25" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="8.125" customWidth="1"/>
-    <col min="14" max="14" width="6.125" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="54">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <f>G2*H2</f>
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="1">
         <v>56</v>
@@ -1265,25 +1383,38 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3622</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <f>G3*H3</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L3" s="1">
         <v>6</v>
@@ -1291,25 +1422,38 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
@@ -1319,25 +1463,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="1">
+        <v>49</v>
+      </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>147</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="L5" s="1">
         <v>30</v>
@@ -1345,25 +1502,38 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="1">
+        <v>23</v>
+      </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1">
         <v>23</v>
@@ -1371,25 +1541,38 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1">
         <v>25</v>
@@ -1397,25 +1580,38 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="1">
+        <v>60</v>
+      </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1">
         <v>60</v>
@@ -1423,8 +1619,8 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1441,8 +1637,8 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1459,8 +1655,8 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1477,53 +1673,73 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L12" s="1">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L13" s="1">
         <v>9</v>
@@ -1531,25 +1747,35 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="1">
+        <v>33</v>
+      </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1">
         <v>33</v>
@@ -1557,25 +1783,35 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
       <c r="H15" s="1">
         <v>4</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L15" s="1">
         <v>20</v>
@@ -1583,25 +1819,35 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.7</v>
+      </c>
       <c r="H16" s="1">
         <v>5</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L16" s="1">
         <v>3.5</v>
@@ -1609,13 +1855,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1625,9 +1871,11 @@
         <v>20</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L17" s="1">
         <v>32.799999999999997</v>
@@ -1635,25 +1883,33 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
       <c r="B18" s="1">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L18" s="1">
         <v>25</v>
@@ -1661,8 +1917,8 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
       <c r="B19" s="1">
         <v>8</v>
       </c>
@@ -1679,8 +1935,8 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
       <c r="B20" s="1">
         <v>9</v>
       </c>
@@ -1697,8 +1953,8 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -1715,27 +1971,35 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1">
         <v>30</v>
@@ -1743,13 +2007,13 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1761,7 +2025,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="1">
         <v>30</v>
@@ -1769,25 +2033,27 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>50</v>
+      </c>
       <c r="H24" s="1">
         <v>1</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L24" s="1">
         <v>10</v>
@@ -1795,13 +2061,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
       <c r="B25" s="1">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1813,7 +2079,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L25" s="1">
         <v>30</v>
@@ -1821,13 +2087,13 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
       <c r="B26" s="1">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1839,7 +2105,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L26" s="1">
         <v>10</v>
@@ -1847,13 +2113,13 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
       <c r="B27" s="1">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1865,7 +2131,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L27" s="1">
         <v>25</v>
@@ -1873,13 +2139,13 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
       <c r="B28" s="1">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1891,7 +2157,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L28" s="1">
         <v>25</v>
@@ -1899,8 +2165,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="1">
         <v>8</v>
       </c>
@@ -1917,8 +2183,8 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
       <c r="B30" s="1">
         <v>9</v>
       </c>
@@ -1935,8 +2201,8 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31" s="1">
         <v>10</v>
       </c>
@@ -1953,15 +2219,15 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1973,7 +2239,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L32" s="1">
         <v>540</v>
@@ -1981,13 +2247,13 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1999,7 +2265,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1">
         <v>157</v>
@@ -2007,13 +2273,13 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
       <c r="B34" s="1">
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2025,7 +2291,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L34" s="1">
         <v>21</v>
@@ -2033,13 +2299,13 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
       <c r="B35" s="1">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2048,10 +2314,10 @@
       <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L35" s="1">
         <v>9</v>
@@ -2059,13 +2325,13 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="14.25">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
       <c r="B36" s="1">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2074,10 +2340,10 @@
       <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L36" s="1">
         <v>54</v>
@@ -2085,8 +2351,8 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37" s="1">
         <v>6</v>
       </c>
@@ -2103,8 +2369,8 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
       <c r="B38" s="1">
         <v>7</v>
       </c>
@@ -2121,8 +2387,8 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
       <c r="B39" s="1">
         <v>8</v>
       </c>
@@ -2139,8 +2405,8 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
       <c r="B40" s="1">
         <v>9</v>
       </c>
@@ -2157,8 +2423,8 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
       <c r="B41" s="1">
         <v>10</v>
       </c>
@@ -2175,15 +2441,15 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2195,7 +2461,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L42" s="1">
         <v>140</v>
@@ -2203,13 +2469,13 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
       <c r="B43" s="1">
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2221,7 +2487,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L43" s="1">
         <v>120</v>
@@ -2229,8 +2495,8 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
       <c r="B44" s="1">
         <v>3</v>
       </c>
@@ -2247,8 +2513,8 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
       <c r="B45" s="1">
         <v>4</v>
       </c>
@@ -2265,8 +2531,8 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
       <c r="B46" s="1">
         <v>5</v>
       </c>
@@ -2283,8 +2549,8 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
       <c r="B47" s="1">
         <v>6</v>
       </c>
@@ -2301,8 +2567,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="4"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
       <c r="B48" s="1">
         <v>7</v>
       </c>
@@ -2319,8 +2585,8 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
       <c r="B49" s="1">
         <v>8</v>
       </c>
@@ -2337,8 +2603,8 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="4"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
       <c r="B50" s="1">
         <v>9</v>
       </c>
@@ -2355,8 +2621,8 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
       <c r="B51" s="1">
         <v>10</v>
       </c>
@@ -2373,15 +2639,15 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="3" t="s">
-        <v>62</v>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2390,28 +2656,28 @@
       <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L52" s="1">
         <v>100</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N52" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="4"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
       <c r="B53" s="1">
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2420,28 +2686,28 @@
       <c r="H53" s="1">
         <v>1</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L53" s="1">
         <v>100</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N53" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="4"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2450,10 +2716,10 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L54" s="1">
         <v>100</v>
@@ -2461,8 +2727,8 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="4"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
       <c r="B55" s="1">
         <v>4</v>
       </c>
@@ -2479,8 +2745,8 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="4"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
       <c r="B56" s="1">
         <v>5</v>
       </c>
@@ -2497,8 +2763,8 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
       <c r="B57" s="1">
         <v>6</v>
       </c>
@@ -2515,8 +2781,8 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
       <c r="B58" s="1">
         <v>7</v>
       </c>
@@ -2533,8 +2799,8 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="4"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
       <c r="B59" s="1">
         <v>8</v>
       </c>
@@ -2551,8 +2817,8 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="4"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
       <c r="B60" s="1">
         <v>9</v>
       </c>
@@ -2569,8 +2835,8 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
       <c r="B61" s="1">
         <v>10</v>
       </c>
@@ -2587,15 +2853,15 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="3" t="s">
-        <v>76</v>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2607,7 +2873,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L62" s="1">
         <v>50</v>
@@ -2615,13 +2881,13 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="4"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
       <c r="B63" s="1">
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2630,21 +2896,21 @@
       <c r="H63" s="1">
         <v>1</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
       <c r="L63" s="1">
         <v>50</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="4"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
       <c r="B64" s="1">
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2662,13 +2928,13 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
       <c r="B65" s="1">
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2686,8 +2952,8 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2702,8 +2968,8 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="4"/>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2718,8 +2984,8 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="4"/>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2734,8 +3000,8 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="4"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2750,8 +3016,8 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="4"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2766,8 +3032,8 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="5"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2782,15 +3048,15 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="3" t="s">
-        <v>82</v>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2802,19 +3068,19 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L72" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="4"/>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
       <c r="B73" s="1">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2830,13 +3096,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="4"/>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
       <c r="B74" s="1">
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2845,14 +3111,14 @@
       <c r="H74" s="1">
         <v>1</v>
       </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
       <c r="L74" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="4"/>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2867,8 +3133,8 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="4"/>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2881,8 +3147,8 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="4"/>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2895,8 +3161,8 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="4"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
       <c r="B78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -2904,8 +3170,8 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="4"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2918,8 +3184,8 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="4"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2932,8 +3198,8 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="5"/>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2946,15 +3212,15 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="3" t="s">
-        <v>87</v>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2966,19 +3232,19 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L82" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="4"/>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
       <c r="B83" s="1">
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2990,14 +3256,14 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L83" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="4"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3010,8 +3276,8 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="4"/>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3024,8 +3290,8 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="4"/>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3038,8 +3304,8 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="4"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3052,8 +3318,8 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="4"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3066,8 +3332,8 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3080,8 +3346,8 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="4"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3094,8 +3360,8 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="5"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3108,15 +3374,15 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="3" t="s">
-        <v>92</v>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3128,19 +3394,19 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L92" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="4"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
       <c r="B93" s="1">
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3152,14 +3418,14 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L93" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="4"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3172,8 +3438,8 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="4"/>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="7"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3181,13 +3447,13 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="2"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="4"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3195,13 +3461,13 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="2"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="4"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3214,8 +3480,8 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="4"/>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3228,8 +3494,8 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="4"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3242,8 +3508,8 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="4"/>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="7"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3256,8 +3522,8 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="5"/>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3272,16 +3538,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="A82:A91"/>
     <mergeCell ref="A92:A101"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/发改委预算表格——创新-详表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/发改委预算表格——创新-详表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="242">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>捐赠经费（万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创客交互综合开发平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,9 +368,6 @@
     </r>
   </si>
   <si>
-    <t>增强现实展示工具。</t>
-  </si>
-  <si>
     <t>智能空间设施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,14 +413,6 @@
   </si>
   <si>
     <t>室内定位及巡线结合的机器人配送系统，便于传递文书、材料、零件、工具等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务接待机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用于接待参访、导览、问询等，由中心信息化平台支撑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,19 +477,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wolfram私有计算云</t>
-  </si>
-  <si>
     <t>将本地化数据转变为可计算的数据引擎，实现对知识的全透明，全面索引式的管理，能够有效进行数据检索、语义分析。</t>
   </si>
   <si>
     <t>提供200个节点并发使用的Mathematica符号化计算、System Modeler系统仿真。改语言很好地结合了数值和符号计算引擎、图形系统、编程语言、文本系统、和与其他应用程序的高级连接，实现跨领域大规模计算。</t>
   </si>
   <si>
-    <t>Mathematica、System Modeler计算服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统开发平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,50 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天文摄影实验套装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高感光成像照相机尼康D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍摄星空等高感光要求的摄影题材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤道仪 SkyWatcher S30100 EQ6 Mount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锐星天文望远镜Sharpstar 130APO AL-130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人体工程学座椅Herman Miller Embody系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证长久健康坐姿、集中注意力、提升创造力的人体工效学座椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>液晶屏幕悬挂双臂支架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持屏幕合理高度，减轻颈椎负担</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高性能工作站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苹果高性能工作站Mac Pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,9 +649,6 @@
     <t>Cognionics</t>
   </si>
   <si>
-    <t>UNITY</t>
-  </si>
-  <si>
     <t>100组阴影渲染</t>
   </si>
   <si>
@@ -788,13 +719,362 @@
   </si>
   <si>
     <t>Roomis</t>
+  </si>
+  <si>
+    <t>Hololens</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>zSpace 300</t>
+  </si>
+  <si>
+    <t>TV1.9</t>
+  </si>
+  <si>
+    <t>4.8m幅面，4K高清分辨率，1.9mm间距</t>
+  </si>
+  <si>
+    <t>Allegorithmic</t>
+  </si>
+  <si>
+    <t>Substance Designer 5.X及database</t>
+  </si>
+  <si>
+    <t>Surface Hub</t>
+  </si>
+  <si>
+    <t>84寸，4K分辨率，100点触控，i7/8G/128G/Quadro K2200，多人同时触屏协作，内建识别功能</t>
+  </si>
+  <si>
+    <t>HM-581B</t>
+  </si>
+  <si>
+    <t>58KHz，测量范围80cm至250cm</t>
+  </si>
+  <si>
+    <t>海米科技</t>
+  </si>
+  <si>
+    <t>增强现实展示工具，可开展空间中立体呈现复杂机械结构或数据呈现的多人教学，也可开发叠加丰富信息的增强现实教学内容。</t>
+  </si>
+  <si>
+    <t>230万像素，CPU独立HPU、2GB/64GB</t>
+  </si>
+  <si>
+    <t>生生</t>
+  </si>
+  <si>
+    <t>墙面垂直绿化</t>
+  </si>
+  <si>
+    <t>免维护系统、全光谱补光灯</t>
+  </si>
+  <si>
+    <t>神舟</t>
+  </si>
+  <si>
+    <t>2吨载荷，最大速度10km/h</t>
+  </si>
+  <si>
+    <t>神舟机器人</t>
+  </si>
+  <si>
+    <t>打印幅面：255 × 252 × 200 mm，层面厚度16 microns</t>
+  </si>
+  <si>
+    <t>Stratasys</t>
+  </si>
+  <si>
+    <t>Object260 Connex3</t>
+  </si>
+  <si>
+    <t>德美鹰华</t>
+  </si>
+  <si>
+    <t>Raytool 700</t>
+  </si>
+  <si>
+    <t>600*370mm幅面，700W功率</t>
+  </si>
+  <si>
+    <t>CO2-100</t>
+  </si>
+  <si>
+    <t>1300*900mm幅面，100W</t>
+  </si>
+  <si>
+    <t>20W</t>
+  </si>
+  <si>
+    <t>175mm幅面</t>
+  </si>
+  <si>
+    <t>1300*900mm幅面，3基色</t>
+  </si>
+  <si>
+    <t>130GT</t>
+  </si>
+  <si>
+    <t>Wolfram私有计算云服务器</t>
+  </si>
+  <si>
+    <t>Mathematica、System Modeler计算服务器</t>
+  </si>
+  <si>
+    <t>Wolfram Alpha</t>
+  </si>
+  <si>
+    <t>Mathematica 10.4</t>
+  </si>
+  <si>
+    <t>8核心冗余运算单元</t>
+  </si>
+  <si>
+    <t>Wolfram</t>
+  </si>
+  <si>
+    <t>244GB，32 vCPU，8x800GB SSD，64位平台</t>
+  </si>
+  <si>
+    <t>WolframAlpha智能数据库服务器</t>
+  </si>
+  <si>
+    <t>Private Cloud</t>
+  </si>
+  <si>
+    <t>16核心，244GB，64TB</t>
+  </si>
+  <si>
+    <t>可提供结构化数据库服务，支持大规模符号化计算及人工智能运算</t>
+  </si>
+  <si>
+    <t>Ergolab</t>
+  </si>
+  <si>
+    <t>津发科技</t>
+  </si>
+  <si>
+    <t>包含脑电、眼动、皮电等多重测量方式</t>
+  </si>
+  <si>
+    <t>G2-100</t>
+  </si>
+  <si>
+    <t>Tobii</t>
+  </si>
+  <si>
+    <t>采样率100Hz，4部摄像机，1080p</t>
+  </si>
+  <si>
+    <t>X3-120</t>
+  </si>
+  <si>
+    <t>120Hz采样率，追踪能力97%，准确度0.4，精确度0.24</t>
+  </si>
+  <si>
+    <t>人体工效学研究平台</t>
+  </si>
+  <si>
+    <t>Embody</t>
+  </si>
+  <si>
+    <t>10组调节单元，可进行多种人体工效学评估</t>
+  </si>
+  <si>
+    <t>Herman Miller</t>
+  </si>
+  <si>
+    <t>255虚拟通道，10类运算公式</t>
+  </si>
+  <si>
+    <t>Thought Technology</t>
+  </si>
+  <si>
+    <t>BioNeuro</t>
+  </si>
+  <si>
+    <t>Mac Pro</t>
+  </si>
+  <si>
+    <t>12核心，3T，64GB</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>iMac27</t>
+  </si>
+  <si>
+    <t>27英寸，8核心CPU，3TB，32GB</t>
+  </si>
+  <si>
+    <t>涡流喷射发动机开发平台</t>
+  </si>
+  <si>
+    <t>P200RX等</t>
+  </si>
+  <si>
+    <t>JetCat</t>
+  </si>
+  <si>
+    <t>20kg推力</t>
+  </si>
+  <si>
+    <t>B558</t>
+  </si>
+  <si>
+    <t>1层</t>
+  </si>
+  <si>
+    <t>B558、B570、B643-2</t>
+  </si>
+  <si>
+    <t>地下二层</t>
+  </si>
+  <si>
+    <t>六层</t>
+  </si>
+  <si>
+    <t>数据中心</t>
+  </si>
+  <si>
+    <t>创客交互综合开发平台</t>
+  </si>
+  <si>
+    <t>FFU系统</t>
+  </si>
+  <si>
+    <t>多朗</t>
+  </si>
+  <si>
+    <t>1200空气流量，0.3微米，46dB静音设计，一体化机柜</t>
+  </si>
+  <si>
+    <t>1157-320</t>
+  </si>
+  <si>
+    <t>各实验室</t>
+  </si>
+  <si>
+    <t>实验室、教室除尘及除甲醛</t>
+  </si>
+  <si>
+    <t>负离子空气清洗系统</t>
+  </si>
+  <si>
+    <t>3万伏放电电压、低能耗、有效面积20平方米</t>
+  </si>
+  <si>
+    <t>众清科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3-THU01 </t>
+  </si>
+  <si>
+    <t>环境质量监测物联网系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2-THU01 </t>
+  </si>
+  <si>
+    <t>7种空气数据，云存储及网格分析</t>
+  </si>
+  <si>
+    <t>实验室、教室空气环境质量监测及大数据分析</t>
+  </si>
+  <si>
+    <t>用于复杂系统教学开发展示与拆装</t>
+  </si>
+  <si>
+    <t>用于眼动分析，测量学习过程中对不同内容的关注</t>
+  </si>
+  <si>
+    <t>采集使用AR等虚拟现实系统时人眼的反馈</t>
+  </si>
+  <si>
+    <t>用于进行人体反应监测，考察人在学习过程中，对不同内容和刺激的反应，分析研究学习内容设计与学习效果的关系</t>
+  </si>
+  <si>
+    <t>用于研究人体测量学设计对学习者绩效的影响。</t>
+  </si>
+  <si>
+    <t>沉浸式远程学习系统</t>
+  </si>
+  <si>
+    <t>TP-SMP-K9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持5方以上的沉浸式远程教学</t>
+  </si>
+  <si>
+    <t>思科</t>
+  </si>
+  <si>
+    <t>可作为工业现场与教室之间进行远程互动、沉浸式临场教学的平台</t>
+  </si>
+  <si>
+    <t>多人协作空间智能监控系统</t>
+  </si>
+  <si>
+    <t>500万1/1.8” CMOS</t>
+  </si>
+  <si>
+    <t>DS-2CD5052F</t>
+  </si>
+  <si>
+    <t>Hikvision</t>
+  </si>
+  <si>
+    <t>用于多人互动使用的工作室及教室的远程协作与管理</t>
+  </si>
+  <si>
+    <t>商业设计实验室硬件系统</t>
+  </si>
+  <si>
+    <t>同传设备间及装备</t>
+  </si>
+  <si>
+    <t>不受地点限制的面对面会谈</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>商业设计配套电脑</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>桌椅，资料资料架，展架，资料柜子等</t>
+  </si>
+  <si>
+    <t>基础装修</t>
+  </si>
+  <si>
+    <t>灯具，黑板，舞台，格局改造</t>
+  </si>
+  <si>
+    <t>实现国际会议同传（40人规格），包括中央控制器、发射主机、辐射板、译员机以及接收机</t>
+  </si>
+  <si>
+    <t>polycom视频会议系统</t>
+  </si>
+  <si>
+    <t>电动幕布、投影、麦克风（手持+台式）</t>
+  </si>
+  <si>
+    <t>幕布投影麦克风</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +1102,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="207"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -898,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,8 +1201,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -926,7 +1231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1306,28 +1617,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -1342,24 +1653,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1">
         <v>56</v>
@@ -1368,37 +1679,38 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <f>G2*H2</f>
+        <f t="shared" ref="I2:I8" si="0">G2*H2</f>
         <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1">
+        <f>I2-N2</f>
         <v>56</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>3622</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1">
         <v>6</v>
@@ -1407,37 +1719,38 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <f>G3*H3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="1">
+        <f t="shared" ref="L3:L51" si="1">I3-N3</f>
         <v>6</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -1446,17 +1759,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <f>G4*H4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
@@ -1464,60 +1778,61 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>147</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L5" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1">
         <v>23</v>
@@ -1526,37 +1841,38 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1">
         <v>25</v>
@@ -1565,37 +1881,38 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f>G7*H7</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1">
         <v>60</v>
@@ -1604,1950 +1921,1719 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <f>G8*H8</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I18" si="2">G9*H9</f>
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="13"/>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G12" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="1">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="L14" s="1">
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="G16" s="1">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1">
-        <v>3.5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
       <c r="H17" s="1">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="L17" s="1">
-        <v>32.799999999999997</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
       <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="L18" s="1">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" s="1">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19:I29" si="3">G19*H19</f>
+        <v>30</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1">
-        <v>30</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L22" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L23" s="1">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G24" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L24" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.3</v>
+      </c>
       <c r="H25" s="1">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="L25" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.8</v>
+      </c>
       <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="L26" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.3</v>
+      </c>
       <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="L27" s="1">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="1">
+        <v>150</v>
+      </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="L28" s="1">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="1">
+        <v>120</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="B30" s="1">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="1">
+        <v>500</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ref="I30:I34" si="4">G30*H30</f>
+        <v>500</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="1">
+        <v>60</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="1">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L32" s="1">
-        <v>540</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="2">
+        <v>9</v>
+      </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1" t="s">
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L33" s="1">
-        <v>157</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="2">
+        <v>54</v>
+      </c>
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L34" s="1">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="1">
+        <v>140</v>
+      </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="2" t="s">
+      <c r="I35" s="1">
+        <f t="shared" ref="I35:I51" si="5">G35*H35</f>
+        <v>140</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L35" s="1">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="1">
+        <v>120</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L36" s="1">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="1">
+        <v>160</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="B38" s="1">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="1">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="1">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="1">
+        <v>40</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="1">
+        <v>30</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A42" s="15"/>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.3</v>
+      </c>
       <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="L42" s="1">
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>100</v>
+      </c>
       <c r="H43" s="1">
-        <v>200</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="1">
-        <v>120</v>
-      </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="16">
+        <v>3</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <v>100</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="B46" s="1">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="G46" s="17">
+        <v>20</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="G47" s="17">
+        <v>20</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="17">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="1">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="G48" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>40</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="1">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="G49" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="H49" s="1">
+        <v>40</v>
+      </c>
+      <c r="I49" s="17">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="G50" s="17">
+        <v>18</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="G51" s="17">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="17">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="1">
-        <v>100</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N52" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L53" s="1">
-        <v>100</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N53" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="1">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L54" s="1">
-        <v>100</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="1">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="1">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="1">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="1">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="1">
-        <v>8</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="1">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="1">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="1">
-        <v>50</v>
-      </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="1">
-        <v>2</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="L63" s="1">
-        <v>50</v>
-      </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="1">
-        <v>3</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1">
-        <v>40</v>
-      </c>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="1">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1">
-        <v>30</v>
-      </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L72" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="1">
-        <v>2</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="1">
-        <v>3</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1">
-        <v>1</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="L74" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1">
-        <v>1</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1">
-        <v>10</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L82" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="1">
-        <v>2</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1">
-        <v>10</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L83" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1">
-        <v>2</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L92" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="1">
-        <v>2</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1">
-        <v>5</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L93" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="J52" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A62:A71"/>
+  <mergeCells count="8">
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
